--- a/homework/HW_400_Scheduling.xlsx
+++ b/homework/HW_400_Scheduling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C105CF09-61B0-D24E-B1CD-274ED3E32862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BA0278-0CD5-1649-910C-56DF121AD2F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2320" yWindow="-21140" windowWidth="23240" windowHeight="20140" xr2:uid="{BC857EBF-F8F5-FA4A-A099-0DC5527EF30D}"/>
+    <workbookView xWindow="2240" yWindow="3340" windowWidth="28860" windowHeight="16480" activeTab="1" xr2:uid="{BC857EBF-F8F5-FA4A-A099-0DC5527EF30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Author" sheetId="7" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q1</t>
   </si>
@@ -125,6 +125,21 @@
   </si>
   <si>
     <t>HW_400_Scheduling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift 1: 8 am - 10 am        Shift 2: 9 am - 1 pm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift 3: 10 am - 2 pm        Shift 4: 1 pm - 3 pm </t>
+  </si>
+  <si>
+    <t>Starting at 8 am, per hour we need this many workers: 80, 30, 27, 18, 32, 78, 50</t>
+  </si>
+  <si>
+    <t>Use Solver to minimize labor cost.</t>
+  </si>
+  <si>
+    <t>80, 30, 27, 18, 32, 78, 50</t>
   </si>
 </sst>
 </file>
@@ -301,6 +316,42 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Here are the shifts and their pay.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -347,7 +398,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>        </a:t>
+            <a:t>  ($50)          </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
@@ -359,7 +410,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Shift 2: 9 am - 1 pm </a:t>
+            <a:t>Shift 2: 9 am - 1 pm ($130)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -373,7 +424,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Shift 3: 10 am - 2 pm</a:t>
+            <a:t>Shift 3: 10 am - 2 pm  ($120)</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -397,21 +448,33 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Shift 4: 1 pm - 3 pm </a:t>
+            <a:t>Shift 4: 1 pm - 3 pm ($40)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Starting at 8</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> am, per hour we need this many workers: 80, 30, 27, 18, 32, 78, 50</a:t>
-          </a:r>
+            <a:t> am, per hour we need this many workers: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>80, 30, 27, 18, 32, 78, 50</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
@@ -726,7 +789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D80D07-BE0D-724D-8959-CD422690A5B8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
+    <sheetView zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -761,7 +824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68EED42-8092-3147-B1B6-0A3BA265BBFD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -777,7 +840,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -821,9 +884,87 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>80</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
     </row>
